--- a/Graficos C4.xlsx
+++ b/Graficos C4.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="12915" windowHeight="7500"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="12915" windowHeight="7500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS" sheetId="1" r:id="rId1"/>
     <sheet name="GRAFICO 1" sheetId="2" r:id="rId2"/>
     <sheet name="GRAFICO 2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ALGORITMO</t>
   </si>
@@ -31,15 +31,6 @@
   </si>
   <si>
     <t>TIEMPO (ns)</t>
-  </si>
-  <si>
-    <t>0.0628319</t>
-  </si>
-  <si>
-    <t>0.00628319</t>
-  </si>
-  <si>
-    <t>0.000628319</t>
   </si>
 </sst>
 </file>
@@ -620,14 +611,14 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Desvío</a:t>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Desvío Real Relativo vs. K 	[3]</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> real relativo VS k</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -655,42 +646,43 @@
             </c:strRef>
           </c:tx>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>DATOS!$C$2:$C$11</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0628319</c:v>
+                  <c:v>6.2799999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00628319</c:v>
+                  <c:v>6.28E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000628319</c:v>
+                  <c:v>6.2799999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6,28E+00</c:v>
+                  <c:v>6.2799999999999995E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6,28E-01</c:v>
+                  <c:v>6.28E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6,28E-02</c:v>
+                  <c:v>6.2799999999999996E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6,28E-03</c:v>
+                  <c:v>6.2800000000000006E-8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6,28E-04</c:v>
+                  <c:v>6.2799999999999998E-9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6,28E-05</c:v>
+                  <c:v>6.28E-10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6,28E-06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>6.2800000000000005E-11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -699,19 +691,19 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-1.7881399999999999E-2</c:v>
+                  <c:v>-1.79E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.5762799999999997E-2</c:v>
+                  <c:v>-3.58E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.9604600000000001E-2</c:v>
+                  <c:v>-5.9599999999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.19209E-2</c:v>
+                  <c:v>1.1899999999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.7881399999999999E-2</c:v>
+                  <c:v>-1.79E-7</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>0</c:v>
@@ -741,26 +733,26 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237341312"/>
-        <c:axId val="237343104"/>
+        <c:axId val="673686080"/>
+        <c:axId val="673686656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237341312"/>
+        <c:axId val="673686080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237343104"/>
+        <c:crossAx val="673686656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237343104"/>
+        <c:axId val="673686656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,7 +763,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237341312"/>
+        <c:crossAx val="673686080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -812,24 +804,14 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Tiempo</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> de corrida</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> VS </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Pasos (N) </a:t>
+              <a:t>Tiempo de Corrida vs. Pasos (N)	[4] </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -860,7 +842,7 @@
             <c:numRef>
               <c:f>DATOS!$F$2:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
@@ -874,22 +856,22 @@
                 <c:pt idx="3">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
+                <c:pt idx="4">
                   <c:v>1000000</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
+                <c:pt idx="5">
                   <c:v>10000000</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
+                <c:pt idx="6">
                   <c:v>100000000</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
+                <c:pt idx="7">
                   <c:v>1000000000</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
+                <c:pt idx="8">
                   <c:v>10000000000</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
+                <c:pt idx="9">
                   <c:v>100000000000</c:v>
                 </c:pt>
               </c:numCache>
@@ -914,22 +896,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>298350000000</c:v>
+                  <c:v>29800000</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>22034700000000</c:v>
+                  <c:v>220000000</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>22959000000000</c:v>
+                  <c:v>2300000000</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>2274860000000000</c:v>
+                  <c:v>22700000000</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>2.27258E+16</c:v>
+                  <c:v>227000000000</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>2.27371E+17</c:v>
+                  <c:v>2270000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -944,11 +926,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237351680"/>
-        <c:axId val="237353600"/>
+        <c:axId val="673688384"/>
+        <c:axId val="673688960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237351680"/>
+        <c:axId val="673688384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,11 +938,11 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237353600"/>
+        <c:crossAx val="673688960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -968,7 +950,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237353600"/>
+        <c:axId val="673688960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,7 +962,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237351680"/>
+        <c:crossAx val="673688384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1360,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,84 +1374,84 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>6.2799999999999995E-2</v>
       </c>
       <c r="D2" s="6">
-        <v>-1.7881399999999999E-2</v>
+        <v>-1.79E-7</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>6.28E-3</v>
       </c>
       <c r="D3" s="6">
-        <v>-3.5762799999999997E-2</v>
+        <v>-3.58E-7</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>6.2799999999999998E-4</v>
       </c>
       <c r="D4" s="6">
-        <v>-5.9604600000000001E-2</v>
+        <v>-5.9599999999999999E-7</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="6">
-        <v>6.2831900000000003</v>
+        <v>6.2799999999999995E-5</v>
       </c>
       <c r="D5" s="6">
-        <v>1.19209E-2</v>
+        <v>1.1899999999999999E-7</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="6">
-        <v>0.62831899999999996</v>
+        <v>6.28E-6</v>
       </c>
       <c r="D6" s="6">
-        <v>-1.7881399999999999E-2</v>
+        <v>-1.79E-7</v>
       </c>
       <c r="E6" s="6">
-        <v>298350000000</v>
+        <v>29800000</v>
       </c>
       <c r="F6" s="6">
         <v>1000000</v>
@@ -1477,16 +1459,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="6">
-        <v>6.2831899999999996E-2</v>
+        <v>6.2799999999999996E-7</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>22034700000000</v>
+        <v>220000000</v>
       </c>
       <c r="F7" s="6">
         <v>10000000</v>
@@ -1494,16 +1476,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="6">
-        <v>6.2831900000000001E-3</v>
+        <v>6.2800000000000006E-8</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
       </c>
       <c r="E8" s="6">
-        <v>22959000000000</v>
+        <v>2300000000</v>
       </c>
       <c r="F8" s="6">
         <v>100000000</v>
@@ -1511,16 +1493,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="6">
-        <v>6.2831900000000001E-4</v>
+        <v>6.2799999999999998E-9</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
       </c>
       <c r="E9" s="6">
-        <v>2274860000000000</v>
+        <v>22700000000</v>
       </c>
       <c r="F9" s="6">
         <v>1000000000</v>
@@ -1528,16 +1510,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="6">
-        <v>6.2831900000000004E-5</v>
+        <v>6.28E-10</v>
       </c>
       <c r="D10" s="5">
         <v>0</v>
       </c>
       <c r="E10" s="6">
-        <v>2.27258E+16</v>
+        <v>227000000000</v>
       </c>
       <c r="F10" s="6">
         <v>10000000000</v>
@@ -1545,16 +1527,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="6">
-        <v>6.2831900000000004E-6</v>
+        <v>6.2800000000000005E-11</v>
       </c>
       <c r="D11" s="5">
         <v>0</v>
       </c>
       <c r="E11" s="6">
-        <v>2.27371E+17</v>
+        <v>2270000000000</v>
       </c>
       <c r="F11" s="6">
         <v>100000000000</v>
@@ -1664,7 +1646,7 @@
   <dimension ref="BJ29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T46" sqref="T46"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
